--- a/biology/Zoologie/Grenadier_abyssal/Grenadier_abyssal.xlsx
+++ b/biology/Zoologie/Grenadier_abyssal/Grenadier_abyssal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coryphaenoides armatus
 Le grenadier abyssal (Coryphaenoides armatus) est une espèce de poisson de la famille des Macrouridae.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fishbase, le grenadier abyssal peut atteindre 1 m[1]. Leur corps est brunâtre, excepté leur abdomen qui est bleu. La bouche est assez petite par rapport à la tête et aux yeux. Il possède deux épines dorsales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fishbase, le grenadier abyssal peut atteindre 1 m. Leur corps est brunâtre, excepté leur abdomen qui est bleu. La bouche est assez petite par rapport à la tête et aux yeux. Il possède deux épines dorsales.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime alimentaire de Coryphaenoides armatus varie selon son âge : Les jeunes se nourrissent d'invertébrés tels que les holothuries ou les crustacés. Adultes, ils se nourrissent de poissons, de céphalopodes et d'oursins.
 </t>
